--- a/INPUT-FILES/OES-TABLES/growth-score-lookup.xlsx
+++ b/INPUT-FILES/OES-TABLES/growth-score-lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/R/DP4-R/INPUT-FILES/OES-TABLES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866961E1-4A80-C748-85B8-A8F1DC436322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99554E-1769-2741-9844-A23CD8BE754E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="1" r:id="rId1"/>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2235,7 +2235,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/INPUT-FILES/OES-TABLES/growth-score-lookup.xlsx
+++ b/INPUT-FILES/OES-TABLES/growth-score-lookup.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/R/DP4-R/INPUT-FILES/OES-TABLES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99554E-1769-2741-9844-A23CD8BE754E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12741161-3022-6640-9D39-B84F28982CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interview" sheetId="1" r:id="rId1"/>
     <sheet name="parent" sheetId="2" r:id="rId2"/>
     <sheet name="teacher" sheetId="3" r:id="rId3"/>
+    <sheet name="clinician" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>PHY</t>
   </si>
@@ -2234,7 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D7BD65-899E-2547-B921-5D984530A8E3}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
@@ -3126,4 +3127,903 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849EB7C0-E45B-1045-B892-A63A9C3F22DE}">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>288</v>
+      </c>
+      <c r="C2" s="7">
+        <v>295</v>
+      </c>
+      <c r="D2" s="7">
+        <v>340</v>
+      </c>
+      <c r="E2" s="7">
+        <v>271</v>
+      </c>
+      <c r="F2" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>315</v>
+      </c>
+      <c r="C3" s="7">
+        <v>318</v>
+      </c>
+      <c r="D3" s="7">
+        <v>361</v>
+      </c>
+      <c r="E3" s="7">
+        <v>295</v>
+      </c>
+      <c r="F3" s="7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>342</v>
+      </c>
+      <c r="C4" s="7">
+        <v>341</v>
+      </c>
+      <c r="D4" s="7">
+        <v>382</v>
+      </c>
+      <c r="E4" s="7">
+        <v>319</v>
+      </c>
+      <c r="F4" s="7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>361</v>
+      </c>
+      <c r="C5" s="7">
+        <v>356</v>
+      </c>
+      <c r="D5" s="7">
+        <v>396</v>
+      </c>
+      <c r="E5" s="7">
+        <v>336</v>
+      </c>
+      <c r="F5" s="7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>375</v>
+      </c>
+      <c r="C6" s="7">
+        <v>368</v>
+      </c>
+      <c r="D6" s="7">
+        <v>407</v>
+      </c>
+      <c r="E6" s="7">
+        <v>350</v>
+      </c>
+      <c r="F6" s="7">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>388</v>
+      </c>
+      <c r="C7" s="7">
+        <v>379</v>
+      </c>
+      <c r="D7" s="7">
+        <v>416</v>
+      </c>
+      <c r="E7" s="7">
+        <v>363</v>
+      </c>
+      <c r="F7" s="7">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>399</v>
+      </c>
+      <c r="C8" s="7">
+        <v>388</v>
+      </c>
+      <c r="D8" s="7">
+        <v>425</v>
+      </c>
+      <c r="E8" s="7">
+        <v>374</v>
+      </c>
+      <c r="F8" s="7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>409</v>
+      </c>
+      <c r="C9" s="7">
+        <v>397</v>
+      </c>
+      <c r="D9" s="7">
+        <v>433</v>
+      </c>
+      <c r="E9" s="7">
+        <v>385</v>
+      </c>
+      <c r="F9" s="7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>419</v>
+      </c>
+      <c r="C10" s="7">
+        <v>406</v>
+      </c>
+      <c r="D10" s="7">
+        <v>440</v>
+      </c>
+      <c r="E10" s="7">
+        <v>395</v>
+      </c>
+      <c r="F10" s="7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
+        <v>428</v>
+      </c>
+      <c r="C11" s="7">
+        <v>414</v>
+      </c>
+      <c r="D11" s="7">
+        <v>447</v>
+      </c>
+      <c r="E11" s="7">
+        <v>404</v>
+      </c>
+      <c r="F11" s="7">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>437</v>
+      </c>
+      <c r="C12" s="7">
+        <v>422</v>
+      </c>
+      <c r="D12" s="7">
+        <v>454</v>
+      </c>
+      <c r="E12" s="7">
+        <v>414</v>
+      </c>
+      <c r="F12" s="7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>446</v>
+      </c>
+      <c r="C13" s="7">
+        <v>430</v>
+      </c>
+      <c r="D13" s="7">
+        <v>461</v>
+      </c>
+      <c r="E13" s="7">
+        <v>423</v>
+      </c>
+      <c r="F13" s="7">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>455</v>
+      </c>
+      <c r="C14" s="7">
+        <v>437</v>
+      </c>
+      <c r="D14" s="7">
+        <v>468</v>
+      </c>
+      <c r="E14" s="7">
+        <v>432</v>
+      </c>
+      <c r="F14" s="7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>463</v>
+      </c>
+      <c r="C15" s="7">
+        <v>445</v>
+      </c>
+      <c r="D15" s="7">
+        <v>475</v>
+      </c>
+      <c r="E15" s="7">
+        <v>441</v>
+      </c>
+      <c r="F15" s="7">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>471</v>
+      </c>
+      <c r="C16" s="7">
+        <v>452</v>
+      </c>
+      <c r="D16" s="7">
+        <v>482</v>
+      </c>
+      <c r="E16" s="7">
+        <v>450</v>
+      </c>
+      <c r="F16" s="7">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>478</v>
+      </c>
+      <c r="C17" s="7">
+        <v>459</v>
+      </c>
+      <c r="D17" s="7">
+        <v>488</v>
+      </c>
+      <c r="E17" s="7">
+        <v>459</v>
+      </c>
+      <c r="F17" s="7">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>486</v>
+      </c>
+      <c r="C18" s="7">
+        <v>466</v>
+      </c>
+      <c r="D18" s="7">
+        <v>494</v>
+      </c>
+      <c r="E18" s="7">
+        <v>468</v>
+      </c>
+      <c r="F18" s="7">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>493</v>
+      </c>
+      <c r="C19" s="7">
+        <v>474</v>
+      </c>
+      <c r="D19" s="7">
+        <v>500</v>
+      </c>
+      <c r="E19" s="7">
+        <v>476</v>
+      </c>
+      <c r="F19" s="7">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>500</v>
+      </c>
+      <c r="C20" s="7">
+        <v>481</v>
+      </c>
+      <c r="D20" s="7">
+        <v>506</v>
+      </c>
+      <c r="E20" s="7">
+        <v>485</v>
+      </c>
+      <c r="F20" s="7">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>507</v>
+      </c>
+      <c r="C21" s="7">
+        <v>488</v>
+      </c>
+      <c r="D21" s="7">
+        <v>511</v>
+      </c>
+      <c r="E21" s="7">
+        <v>493</v>
+      </c>
+      <c r="F21" s="7">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>514</v>
+      </c>
+      <c r="C22" s="7">
+        <v>495</v>
+      </c>
+      <c r="D22" s="7">
+        <v>517</v>
+      </c>
+      <c r="E22" s="7">
+        <v>501</v>
+      </c>
+      <c r="F22" s="7">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>521</v>
+      </c>
+      <c r="C23" s="7">
+        <v>503</v>
+      </c>
+      <c r="D23" s="7">
+        <v>522</v>
+      </c>
+      <c r="E23" s="7">
+        <v>509</v>
+      </c>
+      <c r="F23" s="7">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>528</v>
+      </c>
+      <c r="C24" s="7">
+        <v>510</v>
+      </c>
+      <c r="D24" s="7">
+        <v>527</v>
+      </c>
+      <c r="E24" s="7">
+        <v>516</v>
+      </c>
+      <c r="F24" s="7">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>536</v>
+      </c>
+      <c r="C25" s="7">
+        <v>517</v>
+      </c>
+      <c r="D25" s="7">
+        <v>532</v>
+      </c>
+      <c r="E25" s="7">
+        <v>524</v>
+      </c>
+      <c r="F25" s="7">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>543</v>
+      </c>
+      <c r="C26" s="7">
+        <v>524</v>
+      </c>
+      <c r="D26" s="7">
+        <v>537</v>
+      </c>
+      <c r="E26" s="7">
+        <v>531</v>
+      </c>
+      <c r="F26" s="7">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>550</v>
+      </c>
+      <c r="C27" s="7">
+        <v>532</v>
+      </c>
+      <c r="D27" s="7">
+        <v>542</v>
+      </c>
+      <c r="E27" s="7">
+        <v>538</v>
+      </c>
+      <c r="F27" s="7">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7">
+        <v>557</v>
+      </c>
+      <c r="C28" s="7">
+        <v>539</v>
+      </c>
+      <c r="D28" s="7">
+        <v>547</v>
+      </c>
+      <c r="E28" s="7">
+        <v>545</v>
+      </c>
+      <c r="F28" s="7">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>565</v>
+      </c>
+      <c r="C29" s="7">
+        <v>546</v>
+      </c>
+      <c r="D29" s="7">
+        <v>553</v>
+      </c>
+      <c r="E29" s="7">
+        <v>552</v>
+      </c>
+      <c r="F29" s="7">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7">
+        <v>573</v>
+      </c>
+      <c r="C30" s="7">
+        <v>554</v>
+      </c>
+      <c r="D30" s="7">
+        <v>558</v>
+      </c>
+      <c r="E30" s="7">
+        <v>559</v>
+      </c>
+      <c r="F30" s="7">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>581</v>
+      </c>
+      <c r="C31" s="7">
+        <v>561</v>
+      </c>
+      <c r="D31" s="7">
+        <v>564</v>
+      </c>
+      <c r="E31" s="7">
+        <v>565</v>
+      </c>
+      <c r="F31" s="7">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="7">
+        <v>590</v>
+      </c>
+      <c r="C32" s="7">
+        <v>569</v>
+      </c>
+      <c r="D32" s="7">
+        <v>570</v>
+      </c>
+      <c r="E32" s="7">
+        <v>572</v>
+      </c>
+      <c r="F32" s="7">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>599</v>
+      </c>
+      <c r="C33" s="7">
+        <v>576</v>
+      </c>
+      <c r="D33" s="7">
+        <v>577</v>
+      </c>
+      <c r="E33" s="7">
+        <v>578</v>
+      </c>
+      <c r="F33" s="7">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="B34" s="7">
+        <v>609</v>
+      </c>
+      <c r="C34" s="7">
+        <v>584</v>
+      </c>
+      <c r="D34" s="7">
+        <v>585</v>
+      </c>
+      <c r="E34" s="7">
+        <v>585</v>
+      </c>
+      <c r="F34" s="7">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>620</v>
+      </c>
+      <c r="C35" s="7">
+        <v>593</v>
+      </c>
+      <c r="D35" s="7">
+        <v>594</v>
+      </c>
+      <c r="E35" s="7">
+        <v>592</v>
+      </c>
+      <c r="F35" s="7">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="7">
+        <v>633</v>
+      </c>
+      <c r="C36" s="7">
+        <v>601</v>
+      </c>
+      <c r="D36" s="7">
+        <v>607</v>
+      </c>
+      <c r="E36" s="7">
+        <v>599</v>
+      </c>
+      <c r="F36" s="7">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>648</v>
+      </c>
+      <c r="C37" s="7">
+        <v>611</v>
+      </c>
+      <c r="D37" s="7">
+        <v>626</v>
+      </c>
+      <c r="E37" s="7">
+        <v>607</v>
+      </c>
+      <c r="F37" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7">
+        <v>671</v>
+      </c>
+      <c r="C38" s="7">
+        <v>621</v>
+      </c>
+      <c r="D38" s="7">
+        <v>645</v>
+      </c>
+      <c r="E38" s="7">
+        <v>615</v>
+      </c>
+      <c r="F38" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>694</v>
+      </c>
+      <c r="C39" s="7">
+        <v>633</v>
+      </c>
+      <c r="D39" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E39" s="7">
+        <v>624</v>
+      </c>
+      <c r="F39" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C40" s="7">
+        <v>647</v>
+      </c>
+      <c r="D40" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E40" s="7">
+        <v>634</v>
+      </c>
+      <c r="F40" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C41" s="7">
+        <v>666</v>
+      </c>
+      <c r="D41" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E41" s="7">
+        <v>647</v>
+      </c>
+      <c r="F41" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C42" s="7">
+        <v>691</v>
+      </c>
+      <c r="D42" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E42" s="7">
+        <v>664</v>
+      </c>
+      <c r="F42" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C43" s="7">
+        <v>716</v>
+      </c>
+      <c r="D43" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E43" s="7">
+        <v>690</v>
+      </c>
+      <c r="F43" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="C44" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="D44" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+      <c r="E44" s="7">
+        <v>716</v>
+      </c>
+      <c r="F44" s="8" t="e">
+        <v>#NULL!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>